--- a/data/obsBuildStatus/obsBuild.xlsx
+++ b/data/obsBuildStatus/obsBuild.xlsx
@@ -1,83 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="840" windowWidth="27495" windowHeight="11640"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="750" yWindow="840" windowWidth="27495" windowHeight="11640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="buildresultsTotal" sheetId="1" r:id="rId1"/>
+    <sheet name="buildresultsTotal" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>succeeded</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>unresolvable</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>excluded</t>
-  </si>
-  <si>
-    <t>blocked</t>
-  </si>
-  <si>
-    <t>scheduled</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>20210922-1007</t>
-  </si>
-  <si>
-    <t>20210926-0747</t>
-  </si>
-  <si>
-    <t>20210927-1707</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,27 +53,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,138 +423,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="10" width="14.625" customWidth="1"/>
+    <col width="14.5" customWidth="1" min="1" max="1"/>
+    <col width="14.625" customWidth="1" min="2" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>succeeded</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>unresolvable</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>broken</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>disabled</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>excluded</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>blocked</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>20210922-1007</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>211</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1913</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="G2" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1924</v>
-      </c>
-      <c r="C2" s="3">
-        <v>211</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1913</v>
-      </c>
-      <c r="E2" s="3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>20210926-0747</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2206</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>266</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1576</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2206</v>
-      </c>
-      <c r="C3" s="3">
-        <v>266</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1576</v>
-      </c>
-      <c r="E3" s="3">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20210927-1707</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>567</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1570</v>
+      </c>
+      <c r="E4" t="n">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" t="n">
         <v>62</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H4" t="n">
+        <v>292</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1516</v>
+      </c>
+      <c r="J4" t="n">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>567</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20210928-1005</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
         <v>1570</v>
       </c>
-      <c r="E4">
+      <c r="E5" t="n">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G5" t="n">
         <v>62</v>
       </c>
-      <c r="H4">
-        <v>292</v>
-      </c>
-      <c r="I4">
-        <v>1516</v>
-      </c>
-      <c r="J4">
+      <c r="H5" t="n">
+        <v>603</v>
+      </c>
+      <c r="I5" t="n">
+        <v>156</v>
+      </c>
+      <c r="J5" t="n">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data/obsBuildStatus/obsBuild.xlsx
+++ b/data/obsBuildStatus/obsBuild.xlsx
@@ -1,43 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="750" yWindow="840" windowWidth="27495" windowHeight="11640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="750" yWindow="840" windowWidth="27495" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="buildresultsTotal" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="buildresultsTotal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>succeeded</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>unresolvable</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>scheduled</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>20210922-1007</t>
+  </si>
+  <si>
+    <t>20210926-0747</t>
+  </si>
+  <si>
+    <t>20210927-1707</t>
+  </si>
+  <si>
+    <t>20210928-1005</t>
+  </si>
+  <si>
+    <t>20210929-1224</t>
+  </si>
+  <si>
+    <t>20210930-1033</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,90 +110,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,201 +426,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="14.5" customWidth="1" min="1" max="1"/>
-    <col width="14.625" customWidth="1" min="2" max="10"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="10" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>succeeded</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>unresolvable</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>broken</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>disabled</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>excluded</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>blocked</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>20210922-1007</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
         <v>1924</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>211</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>1913</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
         <v>62</v>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>20210926-0747</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
         <v>2206</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="5">
         <v>266</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="5">
         <v>1576</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="5">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
         <v>62</v>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>20210927-1707</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>567</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>34</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1570</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>62</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>292</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1516</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>69</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20210928-1005</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>1555</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>90</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1570</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>16</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>62</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>603</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>156</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>69</v>
       </c>
     </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1749</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>1570</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>607</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2309</v>
+      </c>
+      <c r="C7" s="6">
+        <v>170</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1570</v>
+      </c>
+      <c r="E7" s="6">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <f>B7-B3</f>
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <f>C7-C3</f>
+        <v>-96</v>
+      </c>
+      <c r="D8">
+        <f>D7-D3</f>
+        <v>-6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/obsBuildStatus/obsBuild.xlsx
+++ b/data/obsBuildStatus/obsBuild.xlsx
@@ -1,92 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="840" windowWidth="27495" windowHeight="11640"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="750" yWindow="840" windowWidth="27495" windowHeight="11640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="buildresultsTotal" sheetId="1" r:id="rId1"/>
+    <sheet name="buildresultsTotal" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>succeeded</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>unresolvable</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>excluded</t>
-  </si>
-  <si>
-    <t>blocked</t>
-  </si>
-  <si>
-    <t>scheduled</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>20210922-1007</t>
-  </si>
-  <si>
-    <t>20210926-0747</t>
-  </si>
-  <si>
-    <t>20210927-1707</t>
-  </si>
-  <si>
-    <t>20210928-1005</t>
-  </si>
-  <si>
-    <t>20210929-1224</t>
-  </si>
-  <si>
-    <t>20210930-1033</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,34 +59,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,239 +436,422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="10" width="14.625" customWidth="1"/>
+    <col width="14.5" customWidth="1" min="1" max="1"/>
+    <col width="14.625" customWidth="1" min="2" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>succeeded</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>unresolvable</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>broken</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>disabled</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>excluded</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>blocked</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>20210922-1007</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>211</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1913</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>20210926-0747</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>2206</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>266</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1576</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+    </row>
+    <row r="4" hidden="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20210927-1707</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>567</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1570</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>62</v>
+      </c>
+      <c r="H4" t="n">
+        <v>292</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1516</v>
+      </c>
+      <c r="J4" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20210928-1005</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1570</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>62</v>
+      </c>
+      <c r="H5" t="n">
+        <v>603</v>
+      </c>
+      <c r="I5" t="n">
+        <v>156</v>
+      </c>
+      <c r="J5" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20210929-1224</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1749</v>
+      </c>
+      <c r="C6" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1570</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>61</v>
+      </c>
+      <c r="H6" t="n">
+        <v>607</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1924</v>
-      </c>
-      <c r="C2" s="3">
-        <v>211</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1913</v>
-      </c>
-      <c r="E2" s="3">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>62</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2206</v>
-      </c>
-      <c r="C3" s="5">
-        <v>266</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1576</v>
-      </c>
-      <c r="E3" s="5">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>62</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>567</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>20210930-1033</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>2309</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>170</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>1570</v>
       </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>62</v>
-      </c>
-      <c r="H4">
-        <v>292</v>
-      </c>
-      <c r="I4">
-        <v>1516</v>
-      </c>
-      <c r="J4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1555</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5">
-        <v>1570</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>62</v>
-      </c>
-      <c r="H5">
-        <v>603</v>
-      </c>
-      <c r="I5">
-        <v>156</v>
-      </c>
-      <c r="J5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>1749</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>1570</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="E7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="H6">
-        <v>607</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2309</v>
-      </c>
-      <c r="C7" s="6">
-        <v>170</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1570</v>
-      </c>
-      <c r="E7" s="6">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8">
       <c r="B8">
         <f>B7-B3</f>
-        <v>103</v>
+        <v/>
       </c>
       <c r="C8">
         <f>C7-C3</f>
-        <v>-96</v>
+        <v/>
       </c>
       <c r="D8">
         <f>D7-D3</f>
-        <v>-6</v>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20211002-2006</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2311</v>
+      </c>
+      <c r="C9" t="n">
+        <v>168</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1569</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>61</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20211008-0851</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2312</v>
+      </c>
+      <c r="C10" t="n">
+        <v>168</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1569</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11">
+        <f>B10-B7</f>
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20211018-0938</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2315</v>
+      </c>
+      <c r="C12" t="n">
+        <v>166</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1568</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>61</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20211020-1435</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2321</v>
+      </c>
+      <c r="C13" t="n">
+        <v>166</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1562</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>61</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>